--- a/distributed-tensorflow-simulator/exp_results/resnet-200/graphs/10gbps_inrack_even_striping.xlsx
+++ b/distributed-tensorflow-simulator/exp_results/resnet-200/graphs/10gbps_inrack_even_striping.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>multicast</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>pos bar</t>
+  </si>
+  <si>
+    <t>BW: 10Gbps</t>
   </si>
   <si>
     <t xml:space="preserve"> Striping: 1</t>
@@ -71,7 +74,16 @@
     <t>multicast + aggregation vs. multicast info</t>
   </si>
   <si>
-    <t>BW: 10Gbps</t>
+    <t>Resnet-200: Aggregation/Multicast vs Baseline</t>
+  </si>
+  <si>
+    <t>Resnet-200: Multicast+Agg vs Multicast</t>
+  </si>
+  <si>
+    <t>Resnet-200: Multicast/No Aggregation vs Baseline)</t>
+  </si>
+  <si>
+    <t>Resnet-200: Aggregation/No Multicast vs Baseline</t>
   </si>
   <si>
     <t xml:space="preserve"> Optimal Param Distribution: 1</t>
@@ -81,12 +93,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -110,8 +134,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,82 +170,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Resnet-200: Percentage</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Improvement vs. Number of Workers (Aggregation/No Multicast vs Baseline)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.102694892196067"/>
+          <c:y val="0.0274856997713995"/>
+          <c:w val="0.866779211499086"/>
+          <c:h val="0.847606807213614"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -226,7 +193,7 @@
             <c:v>1 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="41275" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -238,84 +205,13 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$4:$G$8</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>11.2164</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.2862</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.1739</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.3718</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.8661</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$4:$F$8</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.2862</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.2604</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.7829</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.4523</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>out!$D$4:$D$8</c:f>
@@ -347,19 +243,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>-0.0109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.375</c:v>
+                  <c:v>21.2891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.951</c:v>
+                  <c:v>33.902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.5709</c:v>
+                  <c:v>40.7162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.2989</c:v>
+                  <c:v>44.0857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,10 +269,11 @@
             <c:v>2 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="41275" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -385,84 +282,13 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$10:$G$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0781</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0109</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.6887</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.9878</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.2629</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$10:$F$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.2279</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.1088</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.3377</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.7489</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.8457</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>out!$D$4:$D$8</c:f>
@@ -494,19 +320,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-0.0401</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>-0.0109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.7741</c:v>
+                  <c:v>20.6839</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.6303</c:v>
+                  <c:v>33.1044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.6076</c:v>
+                  <c:v>40.6479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,10 +346,11 @@
             <c:v>4 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="41275" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -532,84 +359,13 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$16:$G$20</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0221</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.1812</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.3146</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.2123</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2.2819</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$16:$F$20</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0191</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0192</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.1089</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.4954</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.7864</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>out!$D$4:$D$8</c:f>
@@ -650,10 +406,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0945</c:v>
+                  <c:v>20.1775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.8527</c:v>
+                  <c:v>31.1595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,10 +423,11 @@
             <c:v>8 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="53975" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -679,84 +436,13 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$22:$G$26</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.101</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>6.2179</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.3553</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$22:$F$26</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0191</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0762</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.6722</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>6.9489</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>out!$D$4:$D$8</c:f>
@@ -797,10 +483,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.2171</c:v>
+                  <c:v>0.1086</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.7753</c:v>
+                  <c:v>20.8907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,13 +501,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2044175440"/>
-        <c:axId val="-2044169184"/>
+        <c:axId val="-2034076256"/>
+        <c:axId val="-2051178064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2044175440"/>
+        <c:axId val="-2034076256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32.0"/>
+          <c:min val="2.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -846,7 +534,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -859,7 +547,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100">
+                  <a:rPr lang="en-US" sz="1600" b="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -883,7 +571,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -905,12 +593,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -921,7 +606,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -936,14 +621,689 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044169184"/>
+        <c:crossAx val="-2051178064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2044169184"/>
+        <c:axId val="-2051178064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Percentage Improvement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00560747663551402"/>
+              <c:y val="0.245325197869024"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2034076256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10877907692443"/>
+          <c:y val="0.0328015004617929"/>
+          <c:w val="0.30070285262709"/>
+          <c:h val="0.15706113034572"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.102257217847769"/>
+          <c:y val="0.0381523530488921"/>
+          <c:w val="0.867097057893941"/>
+          <c:h val="0.836362082646646"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 PS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>out!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>out!$E$29:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.5413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.3444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.2005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 PS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>out!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>out!$E$35:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.1414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.2455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.6045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 PS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>out!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>out!$E$41:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.1063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.2282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.2507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 PS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>out!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>out!$E$47:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.1836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2037087568"/>
+        <c:axId val="-2037084992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2037087568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32.0"/>
+          <c:min val="2.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of Workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2037084992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2037084992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -981,26 +1341,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Percentage</a:t>
+                  <a:t>Percentage Improvement</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> Improvement: Agg+No Multicast over Baseline</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1040,12 +1387,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1056,7 +1400,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1071,13 +1415,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044175440"/>
+        <c:crossAx val="-2037087568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1089,9 +1434,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.456562660975789"/>
-          <c:y val="0.772638762974809"/>
-          <c:w val="0.481857384649349"/>
+          <c:x val="0.10321868688347"/>
+          <c:y val="0.0559505352904626"/>
+          <c:w val="0.843373871459785"/>
           <c:h val="0.0488360106345051"/>
         </c:manualLayout>
       </c:layout>
@@ -1108,7 +1453,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1126,16 +1471,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1158,7 +1496,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1172,82 +1510,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Resnet-200: Percentage</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Improvement vs. Number of Workers (Multicast/No Aggregation vs Baseline)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10749281994201"/>
+          <c:y val="0.0380540222420651"/>
+          <c:w val="0.855665993321515"/>
+          <c:h val="0.846687636983521"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1258,7 +1533,7 @@
             <c:v>1 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1270,84 +1545,13 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$29:$G$33</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0762</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.2283</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.1391</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.1041</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$29:$F$33</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.6377</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.264</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.213</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.2085</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>out!$D$4:$D$8</c:f>
@@ -1374,24 +1578,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$29:$E$33</c:f>
+              <c:f>out!$E$54:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-14.0282</c:v>
+                  <c:v>11.156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.8219</c:v>
+                  <c:v>53.3116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.885</c:v>
+                  <c:v>76.4236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.2442</c:v>
+                  <c:v>86.2078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.2438</c:v>
+                  <c:v>93.8606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,10 +1609,11 @@
             <c:v>2 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1417,84 +1622,13 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$35:$G$39</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0209</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0761</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0712</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.5445</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.4342</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$35:$F$39</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.2445</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0894</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.2839</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.254</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0358</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>out!$D$4:$D$8</c:f>
@@ -1521,24 +1655,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$35:$E$39</c:f>
+              <c:f>out!$E$60:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3307</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-14.0129</c:v>
+                  <c:v>11.1414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.0085</c:v>
+                  <c:v>52.9073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.4787</c:v>
+                  <c:v>76.4594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.8635</c:v>
+                  <c:v>88.2102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1552,10 +1686,11 @@
             <c:v>4 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1564,84 +1699,13 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$41:$G$45</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.023</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.1815</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.8157</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.166</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.3378</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$41:$F$45</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0006</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0177</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.9807</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.1986</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.1461</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>out!$D$4:$D$8</c:f>
@@ -1668,24 +1732,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$41:$E$45</c:f>
+              <c:f>out!$E$66:$E$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0101</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.181</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-13.9644</c:v>
+                  <c:v>11.1063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.7704</c:v>
+                  <c:v>53.0387</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.6061</c:v>
+                  <c:v>73.0476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1699,10 +1763,11 @@
             <c:v>8 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="47625" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1711,84 +1776,13 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$47:$G$51</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0293</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>6.2176</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.5311</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$47:$F$51</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0193</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>6.6912</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.1322</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>out!$D$4:$D$8</c:f>
@@ -1815,7 +1809,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$47:$E$51</c:f>
+              <c:f>out!$E$72:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1826,13 +1820,13 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1812</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-13.7212</c:v>
+                  <c:v>10.5515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.7389</c:v>
+                  <c:v>52.9304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,13 +1841,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2044093728"/>
-        <c:axId val="-2044087472"/>
+        <c:axId val="-2048849280"/>
+        <c:axId val="-2035200048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2044093728"/>
+        <c:axId val="-2048849280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32.0"/>
+          <c:min val="2.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1878,7 +1874,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1891,7 +1887,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1915,7 +1911,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1937,12 +1933,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1953,7 +1946,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1968,14 +1961,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044087472"/>
+        <c:crossAx val="-2035200048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2044087472"/>
+        <c:axId val="-2035200048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2013,7 +2008,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2021,18 +2016,13 @@
                   <a:t>Percentage</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> Improvement: Multicast+No Agg over Baseline</a:t>
+                  <a:t> Improvement</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2072,12 +2062,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2088,7 +2075,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2103,7 +2090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044093728"/>
+        <c:crossAx val="-2048849280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2121,10 +2108,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.463813482422504"/>
-          <c:y val="0.581176925976103"/>
-          <c:w val="0.499569270848579"/>
-          <c:h val="0.0488360106345051"/>
+          <c:x val="0.111149908617444"/>
+          <c:y val="0.0359020618556701"/>
+          <c:w val="0.597870305478831"/>
+          <c:h val="0.131310171280136"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2140,7 +2127,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2158,1048 +2145,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Resnet-200: Percentage</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Improvement vs. Number of Workers (Aggregation/Multicast vs Baseline)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1 PS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$54:$G$58</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>10.5025</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.2862</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.4512</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0674</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.5346</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$54:$F$58</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0762</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.2862</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.1169</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.4505</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.1944</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>out!$E$54:$E$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-13.952</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.1969</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>69.787</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84.899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91.9261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2 PS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$60:$G$64</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0209</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0761</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.8576</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.4054</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0854</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$60:$F$64</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.2445</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0894</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.238200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.1123</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.4757</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>out!$E$60:$E$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.3307</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-14.0129</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.6848</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69.8336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84.881</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>4 PS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$66:$G$70</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.023</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.1815</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.4156</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.2316</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.9177</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$66:$F$70</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0006</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0177</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0304</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>6.0883</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.4381</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>out!$E$66:$E$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.181</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13.9535</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39.7993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65.947</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>8 PS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$72:$G$76</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0209</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.1872</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.1982</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$72:$F$76</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0193</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>8.5359</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>8.6016</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>out!$E$72:$E$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1812</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-13.9383</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.8739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2044012416"/>
-        <c:axId val="-2044006160"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2044012416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Number of Workers</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2044006160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2044006160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Percentage</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> Improvement: Multicast+Agg over Baseline</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2044012416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.458044886256131"/>
-          <c:y val="0.568240315368082"/>
-          <c:w val="0.494903430509264"/>
-          <c:h val="0.0488360106345051"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3236,82 +2184,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Resnet-200: Percentage</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Improvement vs. Number of Workers (Multicast+Agg vs Multicast)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.104710530293661"/>
+          <c:y val="0.0336351875808538"/>
+          <c:w val="0.864643745448049"/>
+          <c:h val="0.82993063124548"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3322,7 +2207,7 @@
             <c:v>1 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3334,84 +2219,13 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$79:$G$83</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>9.7819</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.3526</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.6398</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0925</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.0321</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$79:$F$83</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.3526</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>6.5288</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>6.0892</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2.279</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>out!$D$4:$D$8</c:f>
@@ -3443,19 +2257,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>-0.0122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.331</c:v>
+                  <c:v>31.3179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.9055</c:v>
+                  <c:v>59.0023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72.9431</c:v>
+                  <c:v>73.717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.3716</c:v>
+                  <c:v>87.6354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3469,10 +2283,11 @@
             <c:v>2 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3481,84 +2296,13 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$85:$G$89</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>5.8535</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.0468</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.018</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$85:$F$89</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>10.2575</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.4727</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>6.1606</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>out!$D$4:$D$8</c:f>
@@ -3596,13 +2340,13 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.613</c:v>
+                  <c:v>30.5367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.3206</c:v>
+                  <c:v>59.144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.0494</c:v>
+                  <c:v>77.4276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3616,10 +2360,11 @@
             <c:v>4 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3628,84 +2373,13 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$91:$G$95</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.8342</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.2218</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5.7987</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$91:$F$95</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0169</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.6064</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.5976</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>out!$D$4:$D$8</c:f>
@@ -3746,10 +2420,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.9516</c:v>
+                  <c:v>30.7985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.1562</c:v>
+                  <c:v>53.3088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3763,10 +2437,11 @@
             <c:v>8 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="47625" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3775,84 +2450,13 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$97:$G$101</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.572</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.034</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$97:$F$101</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0084</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.1313</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10.6417</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>out!$D$4:$D$8</c:f>
@@ -3893,10 +2497,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.1909</c:v>
+                  <c:v>-0.2448</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.0949</c:v>
+                  <c:v>30.5932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3911,13 +2515,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2043931120"/>
-        <c:axId val="-2043924864"/>
+        <c:axId val="-2031019488"/>
+        <c:axId val="-2031005328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2043931120"/>
+        <c:axId val="-2031019488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32.0"/>
+          <c:min val="2.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3942,7 +2548,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3955,7 +2561,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3979,7 +2585,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4001,12 +2607,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4017,7 +2620,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4032,14 +2635,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043924864"/>
+        <c:crossAx val="-2031005328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2043924864"/>
+        <c:axId val="-2031005328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4064,7 +2668,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4077,26 +2681,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Percentage</a:t>
+                  <a:t>Percentage Improvement</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> Improvement: Multicast+Agg over Multicast</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4114,7 +2705,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4136,12 +2727,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4152,7 +2740,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4167,7 +2755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043931120"/>
+        <c:crossAx val="-2031019488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4185,10 +2773,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.470281401632914"/>
-          <c:y val="0.526843161422416"/>
-          <c:w val="0.49458973762966"/>
-          <c:h val="0.0488360106345051"/>
+          <c:x val="0.111150046034822"/>
+          <c:y val="0.0353573903911361"/>
+          <c:w val="0.805235464676863"/>
+          <c:h val="0.115832517688536"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4204,7 +2792,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4222,16 +2810,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -6483,15 +5064,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>128524</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>96266</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6515,15 +5096,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>64516</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6547,15 +5128,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6579,15 +5160,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>178816</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6624,13 +5205,7 @@
             <v>2</v>
           </cell>
           <cell r="E4">
-            <v>23.071400000000001</v>
-          </cell>
-          <cell r="F4">
-            <v>3.8E-3</v>
-          </cell>
-          <cell r="G4">
-            <v>0.4461</v>
+            <v>2.2854999999999999</v>
           </cell>
         </row>
         <row r="5">
@@ -6638,13 +5213,7 @@
             <v>4</v>
           </cell>
           <cell r="E5">
-            <v>35.942100000000003</v>
-          </cell>
-          <cell r="F5">
-            <v>0.29449999999999998</v>
-          </cell>
-          <cell r="G5">
-            <v>0.51180000000000003</v>
+            <v>26.126000000000001</v>
           </cell>
         </row>
         <row r="6">
@@ -6652,13 +5221,7 @@
             <v>8</v>
           </cell>
           <cell r="E6">
-            <v>42.896999999999998</v>
-          </cell>
-          <cell r="F6">
-            <v>0.16470000000000001</v>
-          </cell>
-          <cell r="G6">
-            <v>7.8399999999999997E-2</v>
+            <v>38.559100000000001</v>
           </cell>
         </row>
         <row r="7">
@@ -6666,13 +5229,7 @@
             <v>16</v>
           </cell>
           <cell r="E7">
-            <v>46.228299999999997</v>
-          </cell>
-          <cell r="F7">
-            <v>0.27300000000000002</v>
-          </cell>
-          <cell r="G7">
-            <v>0.24129999999999999</v>
+            <v>44.277999999999999</v>
           </cell>
         </row>
         <row r="8">
@@ -6680,838 +5237,382 @@
             <v>32</v>
           </cell>
           <cell r="E8">
-            <v>48.099499999999999</v>
-          </cell>
-          <cell r="F8">
-            <v>0.34499999999999997</v>
-          </cell>
-          <cell r="G8">
-            <v>6.83E-2</v>
+            <v>47.1387</v>
           </cell>
         </row>
         <row r="10">
           <cell r="E10">
-            <v>2.71</v>
-          </cell>
-          <cell r="F10">
-            <v>6.3E-3</v>
-          </cell>
-          <cell r="G10">
-            <v>0.93079999999999996</v>
+            <v>2.2856000000000001</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>25.890999999999998</v>
-          </cell>
-          <cell r="F11">
-            <v>0.3165</v>
-          </cell>
-          <cell r="G11">
-            <v>1.6999999999999999E-3</v>
+            <v>26.124199999999998</v>
           </cell>
         </row>
         <row r="12">
           <cell r="E12">
-            <v>37.813699999999997</v>
-          </cell>
-          <cell r="F12">
-            <v>0.70250000000000001</v>
-          </cell>
-          <cell r="G12">
-            <v>0.1239</v>
+            <v>38.557899999999997</v>
           </cell>
         </row>
         <row r="13">
           <cell r="E13">
-            <v>43.594000000000001</v>
-          </cell>
-          <cell r="F13">
-            <v>9.2899999999999996E-2</v>
-          </cell>
-          <cell r="G13">
-            <v>0.27910000000000001</v>
+            <v>44.277900000000002</v>
           </cell>
         </row>
         <row r="14">
           <cell r="E14">
-            <v>46.728999999999999</v>
-          </cell>
-          <cell r="F14">
-            <v>0.44490000000000002</v>
-          </cell>
-          <cell r="G14">
-            <v>7.3499999999999996E-2</v>
+            <v>47.013399999999997</v>
           </cell>
         </row>
         <row r="16">
           <cell r="E16">
-            <v>0.1394</v>
-          </cell>
-          <cell r="F16">
-            <v>0.1603</v>
-          </cell>
-          <cell r="G16">
-            <v>0.1709</v>
+            <v>0.26869999999999999</v>
           </cell>
         </row>
         <row r="17">
           <cell r="E17">
-            <v>21.638200000000001</v>
-          </cell>
-          <cell r="F17">
-            <v>0.46150000000000002</v>
-          </cell>
-          <cell r="G17">
-            <v>5.0000000000000001E-4</v>
+            <v>25.1127</v>
           </cell>
         </row>
         <row r="18">
           <cell r="E18">
-            <v>34.212400000000002</v>
-          </cell>
-          <cell r="F18">
-            <v>0.97789999999999999</v>
-          </cell>
-          <cell r="G18">
-            <v>0.55410000000000004</v>
+            <v>37.540900000000001</v>
           </cell>
         </row>
         <row r="19">
           <cell r="E19">
-            <v>41.346499999999999</v>
-          </cell>
-          <cell r="F19">
-            <v>0.32350000000000001</v>
-          </cell>
-          <cell r="G19">
-            <v>0.57840000000000003</v>
+            <v>43.769100000000002</v>
           </cell>
         </row>
         <row r="20">
           <cell r="E20">
-            <v>45.503100000000003</v>
-          </cell>
-          <cell r="F20">
-            <v>0.98350000000000004</v>
-          </cell>
-          <cell r="G20">
-            <v>0.1542</v>
+            <v>46.884399999999999</v>
           </cell>
         </row>
         <row r="22">
           <cell r="E22">
-            <v>0</v>
-          </cell>
-          <cell r="F22">
-            <v>2.3800000000000002E-2</v>
-          </cell>
-          <cell r="G22">
-            <v>6.7999999999999996E-3</v>
+            <v>0.87529999999999997</v>
           </cell>
         </row>
         <row r="23">
           <cell r="E23">
-            <v>21.2301</v>
-          </cell>
-          <cell r="F23">
-            <v>0.30409999999999998</v>
-          </cell>
-          <cell r="G23">
-            <v>0.1646</v>
+            <v>24.170100000000001</v>
           </cell>
         </row>
         <row r="24">
           <cell r="E24">
-            <v>33.932899999999997</v>
-          </cell>
-          <cell r="F24">
-            <v>1.0168999999999999</v>
-          </cell>
-          <cell r="G24">
-            <v>0.69889999999999997</v>
+            <v>37.061199999999999</v>
           </cell>
         </row>
         <row r="25">
           <cell r="E25">
-            <v>41.549300000000002</v>
-          </cell>
-          <cell r="F25">
-            <v>1.9728000000000001</v>
-          </cell>
-          <cell r="G25">
-            <v>0.1105</v>
+            <v>43.5242</v>
           </cell>
         </row>
         <row r="26">
           <cell r="E26">
-            <v>45.445399999999999</v>
-          </cell>
-          <cell r="F26">
-            <v>1.1913</v>
-          </cell>
-          <cell r="G26">
-            <v>0.12609999999999999</v>
+            <v>46.7607</v>
           </cell>
         </row>
         <row r="29">
           <cell r="E29">
-            <v>24.976400000000002</v>
-          </cell>
-          <cell r="F29">
-            <v>3.0999999999999999E-3</v>
-          </cell>
-          <cell r="G29">
-            <v>1.6999999999999999E-3</v>
+            <v>24.962</v>
           </cell>
         </row>
         <row r="30">
           <cell r="E30">
-            <v>37.482199999999999</v>
-          </cell>
-          <cell r="F30">
-            <v>4.0000000000000002E-4</v>
-          </cell>
-          <cell r="G30">
-            <v>2.9999999999999997E-4</v>
+            <v>37.471499999999999</v>
           </cell>
         </row>
         <row r="31">
           <cell r="E31">
-            <v>43.738</v>
-          </cell>
-          <cell r="F31">
-            <v>5.9999999999999995E-4</v>
-          </cell>
-          <cell r="G31">
-            <v>1E-4</v>
+            <v>43.732999999999997</v>
           </cell>
         </row>
         <row r="32">
           <cell r="E32">
-            <v>46.865200000000002</v>
-          </cell>
-          <cell r="F32">
-            <v>0.26300000000000001</v>
-          </cell>
-          <cell r="G32">
-            <v>0.49559999999999998</v>
+            <v>46.865900000000003</v>
           </cell>
         </row>
         <row r="33">
           <cell r="E33">
-            <v>48.456600000000002</v>
-          </cell>
-          <cell r="F33">
-            <v>0.46829999999999999</v>
-          </cell>
-          <cell r="G33">
-            <v>0.3977</v>
+            <v>48.4328</v>
           </cell>
         </row>
         <row r="35">
           <cell r="E35">
-            <v>1.8254999999999999</v>
-          </cell>
-          <cell r="F35">
-            <v>0.2868</v>
-          </cell>
-          <cell r="G35">
-            <v>0.1948</v>
+            <v>24.963000000000001</v>
           </cell>
         </row>
         <row r="36">
           <cell r="E36">
-            <v>25.904499999999999</v>
-          </cell>
-          <cell r="F36">
-            <v>1.1999999999999999E-3</v>
-          </cell>
-          <cell r="G36">
-            <v>1.6999999999999999E-3</v>
+            <v>37.469799999999999</v>
           </cell>
         </row>
         <row r="37">
           <cell r="E37">
-            <v>37.9495</v>
-          </cell>
-          <cell r="F37">
-            <v>3.3999999999999998E-3</v>
-          </cell>
-          <cell r="G37">
-            <v>2.3999999999999998E-3</v>
+            <v>43.732999999999997</v>
           </cell>
         </row>
         <row r="38">
           <cell r="E38">
-            <v>43.9739</v>
-          </cell>
-          <cell r="F38">
-            <v>0.36320000000000002</v>
-          </cell>
-          <cell r="G38">
-            <v>0.36170000000000002</v>
+            <v>46.865900000000003</v>
           </cell>
         </row>
         <row r="39">
           <cell r="E39">
-            <v>46.986400000000003</v>
-          </cell>
-          <cell r="F39">
-            <v>0.27760000000000001</v>
-          </cell>
-          <cell r="G39">
-            <v>0.17169999999999999</v>
+            <v>48.4328</v>
           </cell>
         </row>
         <row r="41">
           <cell r="E41">
-            <v>0</v>
-          </cell>
-          <cell r="F41">
-            <v>0.14299999999999999</v>
-          </cell>
-          <cell r="G41">
-            <v>0.2198</v>
+            <v>22.735700000000001</v>
           </cell>
         </row>
         <row r="42">
           <cell r="E42">
-            <v>8.1000999999999994</v>
-          </cell>
-          <cell r="F42">
-            <v>2.5000000000000001E-3</v>
-          </cell>
-          <cell r="G42">
-            <v>0.2039</v>
+            <v>36.231099999999998</v>
           </cell>
         </row>
         <row r="43">
           <cell r="E43">
-            <v>27.625299999999999</v>
-          </cell>
-          <cell r="F43">
-            <v>0.1101</v>
-          </cell>
-          <cell r="G43">
-            <v>0.26669999999999999</v>
+            <v>43.176000000000002</v>
           </cell>
         </row>
         <row r="44">
           <cell r="E44">
-            <v>39.868699999999997</v>
-          </cell>
-          <cell r="F44">
-            <v>1.6353</v>
-          </cell>
-          <cell r="G44">
-            <v>2.4108999999999998</v>
+            <v>46.587299999999999</v>
           </cell>
         </row>
         <row r="45">
           <cell r="E45">
-            <v>43.819699999999997</v>
-          </cell>
-          <cell r="F45">
-            <v>0.8992</v>
-          </cell>
-          <cell r="G45">
-            <v>0.51659999999999995</v>
+            <v>48.293599999999998</v>
           </cell>
         </row>
         <row r="47">
           <cell r="E47">
-            <v>0</v>
-          </cell>
-          <cell r="F47">
-            <v>0</v>
-          </cell>
-          <cell r="G47">
-            <v>0</v>
+            <v>20.269500000000001</v>
           </cell>
         </row>
         <row r="48">
           <cell r="E48">
-            <v>5.8230000000000004</v>
-          </cell>
-          <cell r="F48">
-            <v>0.1918</v>
-          </cell>
-          <cell r="G48">
-            <v>1.7000000000000001E-2</v>
+            <v>35.3172</v>
           </cell>
         </row>
         <row r="49">
           <cell r="E49">
-            <v>26.3842</v>
-          </cell>
-          <cell r="F49">
-            <v>0.1888</v>
-          </cell>
-          <cell r="G49">
-            <v>8.6699999999999999E-2</v>
+            <v>42.052300000000002</v>
           </cell>
         </row>
         <row r="50">
           <cell r="E50">
-            <v>37.733400000000003</v>
-          </cell>
-          <cell r="F50">
-            <v>0.51319999999999999</v>
-          </cell>
-          <cell r="G50">
-            <v>0.64880000000000004</v>
+            <v>46.181800000000003</v>
           </cell>
         </row>
         <row r="51">
           <cell r="E51">
-            <v>43.433300000000003</v>
-          </cell>
-          <cell r="F51">
-            <v>0.7248</v>
-          </cell>
-          <cell r="G51">
-            <v>0.90169999999999995</v>
+            <v>48.158700000000003</v>
           </cell>
         </row>
         <row r="54">
           <cell r="E54">
-            <v>48.199800000000003</v>
-          </cell>
-          <cell r="F54">
-            <v>0.15379999999999999</v>
-          </cell>
-          <cell r="G54">
-            <v>1.8700000000000001E-2</v>
+            <v>29.2483</v>
           </cell>
         </row>
         <row r="55">
           <cell r="E55">
-            <v>73.423500000000004</v>
-          </cell>
-          <cell r="F55">
-            <v>8.9999999999999998E-4</v>
-          </cell>
-          <cell r="G55">
-            <v>1.34E-2</v>
+            <v>64.597300000000004</v>
           </cell>
         </row>
         <row r="56">
           <cell r="E56">
-            <v>86.635800000000003</v>
-          </cell>
-          <cell r="F56">
-            <v>0.11020000000000001</v>
-          </cell>
-          <cell r="G56">
-            <v>7.6100000000000001E-2</v>
+            <v>81.791300000000007</v>
           </cell>
         </row>
         <row r="57">
           <cell r="E57">
-            <v>93.298699999999997</v>
-          </cell>
-          <cell r="F57">
-            <v>0.1588</v>
-          </cell>
-          <cell r="G57">
-            <v>8.2500000000000004E-2</v>
+            <v>90.893900000000002</v>
           </cell>
         </row>
         <row r="58">
           <cell r="E58">
-            <v>96.630200000000002</v>
-          </cell>
-          <cell r="F58">
-            <v>0.16339999999999999</v>
-          </cell>
-          <cell r="G58">
-            <v>2.58E-2</v>
+            <v>95.4465</v>
           </cell>
         </row>
         <row r="60">
           <cell r="E60">
-            <v>4.9378000000000002</v>
-          </cell>
-          <cell r="F60">
-            <v>1.14E-2</v>
-          </cell>
-          <cell r="G60">
-            <v>0.52500000000000002</v>
+            <v>29.2456</v>
           </cell>
         </row>
         <row r="61">
           <cell r="E61">
-            <v>51.795499999999997</v>
-          </cell>
-          <cell r="F61">
-            <v>0.31609999999999999</v>
-          </cell>
-          <cell r="G61">
-            <v>1.6999999999999999E-3</v>
+            <v>64.595200000000006</v>
           </cell>
         </row>
         <row r="62">
           <cell r="E62">
-            <v>75.761499999999998</v>
-          </cell>
-          <cell r="F62">
-            <v>0.69989999999999997</v>
-          </cell>
-          <cell r="G62">
-            <v>0.1255</v>
+            <v>81.7911</v>
           </cell>
         </row>
         <row r="63">
           <cell r="E63">
-            <v>87.7744</v>
-          </cell>
-          <cell r="F63">
-            <v>0.24579999999999999</v>
-          </cell>
-          <cell r="G63">
-            <v>0.10390000000000001</v>
+            <v>90.893299999999996</v>
           </cell>
         </row>
         <row r="64">
           <cell r="E64">
-            <v>93.879800000000003</v>
-          </cell>
-          <cell r="F64">
-            <v>0.18970000000000001</v>
-          </cell>
-          <cell r="G64">
-            <v>4.5999999999999999E-2</v>
+            <v>95.5715</v>
           </cell>
         </row>
         <row r="66">
           <cell r="E66">
-            <v>0.1394</v>
-          </cell>
-          <cell r="F66">
-            <v>0.1603</v>
-          </cell>
-          <cell r="G66">
-            <v>0.1709</v>
+            <v>23.0044</v>
           </cell>
         </row>
         <row r="67">
           <cell r="E67">
-            <v>29.735600000000002</v>
-          </cell>
-          <cell r="F67">
-            <v>0.46129999999999999</v>
-          </cell>
-          <cell r="G67">
-            <v>3.2000000000000002E-3</v>
+            <v>61.470399999999998</v>
           </cell>
         </row>
         <row r="68">
           <cell r="E68">
-            <v>61.799199999999999</v>
-          </cell>
-          <cell r="F68">
-            <v>0.94940000000000002</v>
-          </cell>
-          <cell r="G68">
-            <v>0.48309999999999997</v>
+            <v>80.716899999999995</v>
           </cell>
         </row>
         <row r="69">
           <cell r="E69">
-            <v>79.8386</v>
-          </cell>
-          <cell r="F69">
-            <v>0.95369999999999999</v>
-          </cell>
-          <cell r="G69">
-            <v>0.50700000000000001</v>
+            <v>90.356399999999994</v>
           </cell>
         </row>
         <row r="70">
           <cell r="E70">
-            <v>89.778400000000005</v>
-          </cell>
-          <cell r="F70">
-            <v>7.8200000000000006E-2</v>
-          </cell>
-          <cell r="G70">
-            <v>0.1241</v>
+            <v>95.177700000000002</v>
           </cell>
         </row>
         <row r="72">
           <cell r="E72">
-            <v>3.3999999999999998E-3</v>
-          </cell>
-          <cell r="F72">
-            <v>2.3800000000000002E-2</v>
-          </cell>
-          <cell r="G72">
-            <v>3.3999999999999998E-3</v>
+            <v>21.140499999999999</v>
           </cell>
         </row>
         <row r="73">
           <cell r="E73">
-            <v>27.065100000000001</v>
-          </cell>
-          <cell r="F73">
-            <v>0.31359999999999999</v>
-          </cell>
-          <cell r="G73">
-            <v>0.15509999999999999</v>
+            <v>59.487299999999998</v>
           </cell>
         </row>
         <row r="74">
           <cell r="E74">
-            <v>60.405099999999997</v>
-          </cell>
-          <cell r="F74">
-            <v>1.0555000000000001</v>
-          </cell>
-          <cell r="G74">
-            <v>0.49890000000000001</v>
+            <v>79.705399999999997</v>
           </cell>
         </row>
         <row r="75">
           <cell r="E75">
-            <v>79.482900000000001</v>
-          </cell>
-          <cell r="F75">
-            <v>0.25790000000000002</v>
-          </cell>
-          <cell r="G75">
-            <v>3.5799999999999998E-2</v>
+            <v>89.843100000000007</v>
           </cell>
         </row>
         <row r="76">
           <cell r="E76">
-            <v>89.314999999999998</v>
-          </cell>
-          <cell r="F76">
-            <v>0.58899999999999997</v>
-          </cell>
-          <cell r="G76">
-            <v>0.27500000000000002</v>
+            <v>94.9191</v>
           </cell>
         </row>
         <row r="79">
           <cell r="E79">
-            <v>30.953299999999999</v>
-          </cell>
-          <cell r="F79">
-            <v>0.20349999999999999</v>
-          </cell>
-          <cell r="G79">
-            <v>2.53E-2</v>
+            <v>5.7121000000000004</v>
           </cell>
         </row>
         <row r="80">
           <cell r="E80">
-            <v>57.4895</v>
-          </cell>
-          <cell r="F80">
-            <v>1.4E-3</v>
-          </cell>
-          <cell r="G80">
-            <v>2.1600000000000001E-2</v>
+            <v>43.381399999999999</v>
           </cell>
         </row>
         <row r="81">
           <cell r="E81">
-            <v>76.246600000000001</v>
-          </cell>
-          <cell r="F81">
-            <v>0.19570000000000001</v>
-          </cell>
-          <cell r="G81">
-            <v>0.1351</v>
+            <v>67.638800000000003</v>
           </cell>
         </row>
         <row r="82">
           <cell r="E82">
-            <v>87.387600000000006</v>
-          </cell>
-          <cell r="F82">
-            <v>0.29830000000000001</v>
-          </cell>
-          <cell r="G82">
-            <v>9.9000000000000005E-2</v>
+            <v>82.861999999999995</v>
           </cell>
         </row>
         <row r="83">
           <cell r="E83">
-            <v>93.460700000000003</v>
-          </cell>
-          <cell r="F83">
-            <v>0.31559999999999999</v>
-          </cell>
-          <cell r="G83">
-            <v>1.0500000000000001E-2</v>
+            <v>91.169799999999995</v>
           </cell>
         </row>
         <row r="85">
           <cell r="E85">
-            <v>3.1701999999999999</v>
-          </cell>
-          <cell r="F85">
-            <v>0.20419999999999999</v>
-          </cell>
-          <cell r="G85">
-            <v>0.54459999999999997</v>
+            <v>5.7121000000000004</v>
           </cell>
         </row>
         <row r="86">
           <cell r="E86">
-            <v>34.942799999999998</v>
-          </cell>
-          <cell r="F86">
-            <v>0.42549999999999999</v>
-          </cell>
-          <cell r="G86">
-            <v>2.2000000000000001E-3</v>
+            <v>43.3797</v>
           </cell>
         </row>
         <row r="87">
           <cell r="E87">
-            <v>60.939599999999999</v>
-          </cell>
-          <cell r="F87">
-            <v>1.1295999999999999</v>
-          </cell>
-          <cell r="G87">
-            <v>0.1986</v>
+            <v>67.638300000000001</v>
           </cell>
         </row>
         <row r="88">
           <cell r="E88">
-            <v>78.239199999999997</v>
-          </cell>
-          <cell r="F88">
-            <v>0.49909999999999999</v>
-          </cell>
-          <cell r="G88">
-            <v>0.1249</v>
+            <v>82.861000000000004</v>
           </cell>
         </row>
         <row r="89">
           <cell r="E89">
-            <v>88.455399999999997</v>
-          </cell>
-          <cell r="F89">
-            <v>0.39650000000000002</v>
-          </cell>
-          <cell r="G89">
-            <v>0.1234</v>
+            <v>91.412099999999995</v>
           </cell>
         </row>
         <row r="91">
           <cell r="E91">
-            <v>0.12189999999999999</v>
-          </cell>
-          <cell r="F91">
-            <v>7.6399999999999996E-2</v>
-          </cell>
-          <cell r="G91">
-            <v>0.185</v>
+            <v>0.3478</v>
           </cell>
         </row>
         <row r="92">
           <cell r="E92">
-            <v>23.5426</v>
-          </cell>
-          <cell r="F92">
-            <v>0.67330000000000001</v>
-          </cell>
-          <cell r="G92">
-            <v>3.3E-3</v>
+            <v>39.708799999999997</v>
           </cell>
         </row>
         <row r="93">
           <cell r="E93">
-            <v>47.199800000000003</v>
-          </cell>
-          <cell r="F93">
-            <v>1.4937</v>
-          </cell>
-          <cell r="G93">
-            <v>0.75990000000000002</v>
+            <v>66.065200000000004</v>
           </cell>
         </row>
         <row r="94">
           <cell r="E94">
-            <v>66.995500000000007</v>
-          </cell>
-          <cell r="F94">
-            <v>3.5150000000000001</v>
-          </cell>
-          <cell r="G94">
-            <v>0.26450000000000001</v>
+            <v>81.9452</v>
           </cell>
         </row>
         <row r="95">
           <cell r="E95">
-            <v>81.934100000000001</v>
-          </cell>
-          <cell r="F95">
-            <v>0.3921</v>
-          </cell>
-          <cell r="G95">
-            <v>5.7299999999999997E-2</v>
+            <v>90.673699999999997</v>
           </cell>
         </row>
         <row r="97">
           <cell r="E97">
-            <v>3.3999999999999998E-3</v>
-          </cell>
-          <cell r="F97">
-            <v>2.3800000000000002E-2</v>
-          </cell>
-          <cell r="G97">
-            <v>3.3999999999999998E-3</v>
+            <v>1.0925</v>
           </cell>
         </row>
         <row r="98">
           <cell r="E98">
-            <v>22.712900000000001</v>
-          </cell>
-          <cell r="F98">
-            <v>0.4904</v>
-          </cell>
-          <cell r="G98">
-            <v>7.3000000000000001E-3</v>
+            <v>37.367100000000001</v>
           </cell>
         </row>
         <row r="99">
           <cell r="E99">
-            <v>46.150799999999997</v>
-          </cell>
-          <cell r="F99">
-            <v>1.2388999999999999</v>
-          </cell>
-          <cell r="G99">
-            <v>0.74109999999999998</v>
+            <v>64.977699999999999</v>
           </cell>
         </row>
         <row r="100">
           <cell r="E100">
-            <v>66.7607</v>
-          </cell>
-          <cell r="F100">
-            <v>6.9599999999999995E-2</v>
-          </cell>
-          <cell r="G100">
-            <v>0.34260000000000002</v>
+            <v>81.183099999999996</v>
           </cell>
         </row>
         <row r="101">
           <cell r="E101">
-            <v>81.151799999999994</v>
-          </cell>
-          <cell r="F101">
-            <v>1.0084</v>
-          </cell>
-          <cell r="G101">
-            <v>0.35060000000000002</v>
+            <v>90.199200000000005</v>
           </cell>
         </row>
       </sheetData>
@@ -7783,15 +5884,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A66" workbookViewId="0">
-      <selection sqref="A1:G101"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7813,30 +5914,33 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -7850,16 +5954,16 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-1.09E-2</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>11.2164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11.2273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -7873,16 +5977,16 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>21.375</v>
+        <v>21.289100000000001</v>
       </c>
       <c r="F5">
-        <v>0.28620000000000001</v>
+        <v>0.20030000000000001</v>
       </c>
       <c r="G5">
-        <v>0.28620000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.37209999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -7896,16 +6000,16 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>33.951000000000001</v>
+        <v>33.902000000000001</v>
       </c>
       <c r="F6">
-        <v>4.2603999999999997</v>
+        <v>9.3802000000000003</v>
       </c>
       <c r="G6">
-        <v>2.1739000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.2229000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -7919,16 +6023,16 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <v>40.570900000000002</v>
+        <v>40.716200000000001</v>
       </c>
       <c r="F7">
-        <v>1.7828999999999999</v>
+        <v>1.214</v>
       </c>
       <c r="G7">
-        <v>0.37180000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.1973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -7942,16 +6046,16 @@
         <v>32</v>
       </c>
       <c r="E8">
-        <v>43.298900000000003</v>
+        <v>44.085700000000003</v>
       </c>
       <c r="F8">
-        <v>0.45229999999999998</v>
+        <v>0.94769999999999999</v>
       </c>
       <c r="G8">
-        <v>0.86609999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -7965,16 +6069,16 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>-4.0099999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.22789999999999999</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>7.8100000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -7988,16 +6092,16 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-1.09E-2</v>
       </c>
       <c r="F11">
-        <v>0.10879999999999999</v>
+        <v>1E-4</v>
       </c>
       <c r="G11">
-        <v>1.09E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -8011,16 +6115,16 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>20.774100000000001</v>
+        <v>20.683900000000001</v>
       </c>
       <c r="F12">
-        <v>8.3376999999999999</v>
+        <v>18.825199999999999</v>
       </c>
       <c r="G12">
-        <v>4.6886999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.7847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -8034,16 +6138,16 @@
         <v>16</v>
       </c>
       <c r="E13">
-        <v>33.630299999999998</v>
+        <v>33.104399999999998</v>
       </c>
       <c r="F13">
-        <v>3.7488999999999999</v>
+        <v>3.3429000000000002</v>
       </c>
       <c r="G13">
-        <v>1.9878</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.7954000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -8057,16 +6161,16 @@
         <v>32</v>
       </c>
       <c r="E14">
-        <v>40.607599999999998</v>
+        <v>40.6479</v>
       </c>
       <c r="F14">
-        <v>1.8456999999999999</v>
+        <v>3.423</v>
       </c>
       <c r="G14">
-        <v>0.26290000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -8083,13 +6187,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.9099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>2.2100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -8106,13 +6210,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.9199999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.1812</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -8129,13 +6233,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.1089</v>
+        <v>6.6199999999999995E-2</v>
       </c>
       <c r="G18">
-        <v>4.3146000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.2702999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -8149,16 +6253,16 @@
         <v>16</v>
       </c>
       <c r="E19">
-        <v>21.0945</v>
+        <v>20.177499999999998</v>
       </c>
       <c r="F19">
-        <v>7.4954000000000001</v>
+        <v>6.8064</v>
       </c>
       <c r="G19">
-        <v>0.21229999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.0887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -8172,16 +6276,16 @@
         <v>32</v>
       </c>
       <c r="E20">
-        <v>31.852699999999999</v>
+        <v>31.159500000000001</v>
       </c>
       <c r="F20">
-        <v>1.7864</v>
+        <v>1.1072</v>
       </c>
       <c r="G20">
-        <v>2.2818999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.9291999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -8204,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -8221,13 +6325,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.9099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -8244,13 +6348,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>7.6200000000000004E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="G24">
-        <v>0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -8264,16 +6368,16 @@
         <v>16</v>
       </c>
       <c r="E25">
-        <v>-0.21709999999999999</v>
+        <v>0.1086</v>
       </c>
       <c r="F25">
-        <v>7.6722000000000001</v>
+        <v>9.4507999999999992</v>
       </c>
       <c r="G25">
-        <v>6.2179000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20.260999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -8287,24 +6391,27 @@
         <v>32</v>
       </c>
       <c r="E26">
-        <v>20.775300000000001</v>
+        <v>20.890699999999999</v>
       </c>
       <c r="F26">
-        <v>6.9489000000000001</v>
+        <v>8.1051000000000002</v>
       </c>
       <c r="G26">
-        <v>0.3553</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -8318,16 +6425,16 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>-14.0282</v>
+        <v>11.167</v>
       </c>
       <c r="F29">
-        <v>0.63770000000000004</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="G29">
-        <v>7.6200000000000004E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.50629999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -8341,7 +6448,7 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>18.821899999999999</v>
+        <v>32.022399999999998</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -8350,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -8364,16 +6471,16 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>35.884999999999998</v>
+        <v>42.5413</v>
       </c>
       <c r="F31">
-        <v>0.26400000000000001</v>
+        <v>0.30969999999999998</v>
       </c>
       <c r="G31">
-        <v>0.2283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.35039999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -8387,13 +6494,13 @@
         <v>16</v>
       </c>
       <c r="E32">
-        <v>44.244199999999999</v>
+        <v>47.3444</v>
       </c>
       <c r="F32">
-        <v>0.21299999999999999</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="G32">
-        <v>0.1391</v>
+        <v>0.33110000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -8410,13 +6517,13 @@
         <v>32</v>
       </c>
       <c r="E33">
-        <v>48.2438</v>
+        <v>50.200499999999998</v>
       </c>
       <c r="F33">
-        <v>0.20849999999999999</v>
+        <v>0.29170000000000001</v>
       </c>
       <c r="G33">
-        <v>0.1041</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -8433,13 +6540,13 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <v>0.33069999999999999</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.2445</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>2.0899999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -8456,13 +6563,13 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>-14.0129</v>
+        <v>11.141400000000001</v>
       </c>
       <c r="F36">
-        <v>8.9399999999999993E-2</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="G36">
-        <v>7.6100000000000001E-2</v>
+        <v>0.11020000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -8479,13 +6586,13 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>19.008500000000002</v>
+        <v>32.204999999999998</v>
       </c>
       <c r="F37">
-        <v>0.28389999999999999</v>
+        <v>0.18260000000000001</v>
       </c>
       <c r="G37">
-        <v>7.1199999999999999E-2</v>
+        <v>0.2601</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -8502,13 +6609,13 @@
         <v>16</v>
       </c>
       <c r="E38">
-        <v>35.478700000000003</v>
+        <v>42.2455</v>
       </c>
       <c r="F38">
-        <v>0.254</v>
+        <v>0.1283</v>
       </c>
       <c r="G38">
-        <v>0.54449999999999998</v>
+        <v>0.24210000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -8525,13 +6632,13 @@
         <v>32</v>
       </c>
       <c r="E39">
-        <v>43.863500000000002</v>
+        <v>47.604500000000002</v>
       </c>
       <c r="F39">
-        <v>3.5799999999999998E-2</v>
+        <v>0.1719</v>
       </c>
       <c r="G39">
-        <v>0.43419999999999997</v>
+        <v>0.3362</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -8548,13 +6655,13 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>1.01E-2</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>5.9999999999999995E-4</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>2.3E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -8571,13 +6678,13 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>0.18099999999999999</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.77E-2</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.18149999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -8594,13 +6701,13 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>-13.964399999999999</v>
+        <v>11.106299999999999</v>
       </c>
       <c r="F43">
-        <v>0.98070000000000002</v>
+        <v>2.9165000000000001</v>
       </c>
       <c r="G43">
-        <v>1.8157000000000001</v>
+        <v>0.58220000000000005</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -8617,13 +6724,13 @@
         <v>16</v>
       </c>
       <c r="E44">
-        <v>18.770399999999999</v>
+        <v>32.228200000000001</v>
       </c>
       <c r="F44">
-        <v>0.1986</v>
+        <v>0.1782</v>
       </c>
       <c r="G44">
-        <v>0.16600000000000001</v>
+        <v>0.49819999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -8640,13 +6747,13 @@
         <v>32</v>
       </c>
       <c r="E45">
-        <v>35.606099999999998</v>
+        <v>42.250700000000002</v>
       </c>
       <c r="F45">
-        <v>0.14610000000000001</v>
+        <v>0.34620000000000001</v>
       </c>
       <c r="G45">
-        <v>0.33779999999999999</v>
+        <v>0.1106</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -8695,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -8709,16 +6816,16 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>0.1812</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.9300000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>2.93E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -8732,16 +6839,16 @@
         <v>16</v>
       </c>
       <c r="E50">
-        <v>-13.7212</v>
+        <v>10.1836</v>
       </c>
       <c r="F50">
-        <v>6.6912000000000003</v>
+        <v>13.173299999999999</v>
       </c>
       <c r="G50">
-        <v>6.2176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>19.597200000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -8755,24 +6862,24 @@
         <v>32</v>
       </c>
       <c r="E51">
-        <v>18.738900000000001</v>
+        <v>32.089799999999997</v>
       </c>
       <c r="F51">
-        <v>0.13220000000000001</v>
+        <v>0.26040000000000002</v>
       </c>
       <c r="G51">
-        <v>0.53110000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.1976</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -8786,16 +6893,16 @@
         <v>2</v>
       </c>
       <c r="E54">
-        <v>-13.952</v>
+        <v>11.156000000000001</v>
       </c>
       <c r="F54">
-        <v>7.6200000000000004E-2</v>
+        <v>7.2599999999999998E-2</v>
       </c>
       <c r="G54">
-        <v>10.5025</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11.7338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -8809,16 +6916,19 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>40.196899999999999</v>
+        <v>53.311599999999999</v>
       </c>
       <c r="F55">
-        <v>0.28620000000000001</v>
+        <v>0.20039999999999999</v>
       </c>
       <c r="G55">
-        <v>0.28620000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -8832,16 +6942,16 @@
         <v>8</v>
       </c>
       <c r="E56">
-        <v>69.787000000000006</v>
+        <v>76.423599999999993</v>
       </c>
       <c r="F56">
-        <v>4.1169000000000002</v>
+        <v>9.4487000000000005</v>
       </c>
       <c r="G56">
-        <v>2.4512</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.5131999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -8855,16 +6965,16 @@
         <v>16</v>
       </c>
       <c r="E57">
-        <v>84.899000000000001</v>
+        <v>86.207800000000006</v>
       </c>
       <c r="F57">
-        <v>3.4504999999999999</v>
+        <v>1.4326000000000001</v>
       </c>
       <c r="G57">
-        <v>6.7400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.0943000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -8878,16 +6988,16 @@
         <v>32</v>
       </c>
       <c r="E58">
-        <v>91.926100000000005</v>
+        <v>93.860600000000005</v>
       </c>
       <c r="F58">
-        <v>1.1943999999999999</v>
+        <v>0.75870000000000004</v>
       </c>
       <c r="G58">
-        <v>0.53459999999999996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -8901,16 +7011,16 @@
         <v>2</v>
       </c>
       <c r="E60">
-        <v>0.33069999999999999</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.2445</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>2.0899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -8924,16 +7034,16 @@
         <v>4</v>
       </c>
       <c r="E61">
-        <v>-14.0129</v>
+        <v>11.141400000000001</v>
       </c>
       <c r="F61">
-        <v>8.9399999999999993E-2</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="G61">
-        <v>7.6100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.11020000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -8947,16 +7057,16 @@
         <v>8</v>
       </c>
       <c r="E62">
-        <v>39.684800000000003</v>
+        <v>52.907299999999999</v>
       </c>
       <c r="F62">
-        <v>8.2382000000000009</v>
+        <v>18.858499999999999</v>
       </c>
       <c r="G62">
-        <v>4.8575999999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5.0223000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -8970,16 +7080,16 @@
         <v>16</v>
       </c>
       <c r="E63">
-        <v>69.833600000000004</v>
+        <v>76.459400000000002</v>
       </c>
       <c r="F63">
-        <v>0.1123</v>
+        <v>3.8780000000000001</v>
       </c>
       <c r="G63">
-        <v>1.4054</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.5923</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -8993,13 +7103,13 @@
         <v>32</v>
       </c>
       <c r="E64">
-        <v>84.881</v>
+        <v>88.2102</v>
       </c>
       <c r="F64">
-        <v>3.4756999999999998</v>
+        <v>2.2132000000000001</v>
       </c>
       <c r="G64">
-        <v>8.5400000000000004E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -9016,13 +7126,13 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <v>1.01E-2</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>5.9999999999999995E-4</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>2.3E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -9039,13 +7149,13 @@
         <v>4</v>
       </c>
       <c r="E67">
-        <v>0.18099999999999999</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.77E-2</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.18149999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -9062,13 +7172,13 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>-13.9535</v>
+        <v>11.106299999999999</v>
       </c>
       <c r="F68">
-        <v>3.04E-2</v>
+        <v>2.9325999999999999</v>
       </c>
       <c r="G68">
-        <v>3.4156</v>
+        <v>4.9913999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -9085,13 +7195,13 @@
         <v>16</v>
       </c>
       <c r="E69">
-        <v>39.799300000000002</v>
+        <v>53.038699999999999</v>
       </c>
       <c r="F69">
-        <v>6.0883000000000003</v>
+        <v>8.0398999999999994</v>
       </c>
       <c r="G69">
-        <v>0.2316</v>
+        <v>0.33129999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -9108,13 +7218,13 @@
         <v>32</v>
       </c>
       <c r="E70">
-        <v>65.947000000000003</v>
+        <v>73.047600000000003</v>
       </c>
       <c r="F70">
-        <v>0.43809999999999999</v>
+        <v>3.5910000000000002</v>
       </c>
       <c r="G70">
-        <v>3.9177</v>
+        <v>3.4304000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -9177,13 +7287,13 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>0.1812</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.9300000000000001E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="G74">
-        <v>2.0899999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -9200,13 +7310,13 @@
         <v>16</v>
       </c>
       <c r="E75">
-        <v>-13.9383</v>
+        <v>10.551500000000001</v>
       </c>
       <c r="F75">
-        <v>8.5358999999999998</v>
+        <v>17.468800000000002</v>
       </c>
       <c r="G75">
-        <v>0.18720000000000001</v>
+        <v>19.057400000000001</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -9223,18 +7333,18 @@
         <v>32</v>
       </c>
       <c r="E76">
-        <v>39.873899999999999</v>
+        <v>52.930399999999999</v>
       </c>
       <c r="F76">
-        <v>8.6015999999999995</v>
+        <v>8.1864000000000008</v>
       </c>
       <c r="G76">
-        <v>0.19819999999999999</v>
+        <v>0.1704</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -9251,13 +7361,13 @@
         <v>2</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>-1.2200000000000001E-2</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="G79">
-        <v>9.7819000000000003</v>
+        <v>12.711</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -9274,16 +7384,16 @@
         <v>4</v>
       </c>
       <c r="E80">
-        <v>26.331</v>
+        <v>31.317900000000002</v>
       </c>
       <c r="F80">
-        <v>0.35260000000000002</v>
+        <v>0.29470000000000002</v>
       </c>
       <c r="G80">
-        <v>0.35260000000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.5474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -9297,16 +7407,16 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>52.905500000000004</v>
+        <v>59.002299999999998</v>
       </c>
       <c r="F81">
-        <v>6.5288000000000004</v>
+        <v>16.3904</v>
       </c>
       <c r="G81">
-        <v>3.6398000000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.1662999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -9320,16 +7430,19 @@
         <v>16</v>
       </c>
       <c r="E82">
-        <v>72.943100000000001</v>
+        <v>73.716999999999999</v>
       </c>
       <c r="F82">
-        <v>6.0891999999999999</v>
+        <v>2.6539999999999999</v>
       </c>
       <c r="G82">
-        <v>9.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.1234999999999999</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -9343,16 +7456,16 @@
         <v>32</v>
       </c>
       <c r="E83">
-        <v>84.371600000000001</v>
+        <v>87.635400000000004</v>
       </c>
       <c r="F83">
-        <v>2.2789999999999999</v>
+        <v>1.5299</v>
       </c>
       <c r="G83">
-        <v>1.0321</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.59250000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -9375,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -9398,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -9412,16 +7525,16 @@
         <v>8</v>
       </c>
       <c r="E87">
-        <v>25.613</v>
+        <v>30.5367</v>
       </c>
       <c r="F87">
-        <v>10.2575</v>
+        <v>27.7957</v>
       </c>
       <c r="G87">
-        <v>5.8535000000000004</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.1726999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -9435,16 +7548,16 @@
         <v>16</v>
       </c>
       <c r="E88">
-        <v>53.320599999999999</v>
+        <v>59.143999999999998</v>
       </c>
       <c r="F88">
-        <v>0.47270000000000001</v>
+        <v>6.52</v>
       </c>
       <c r="G88">
-        <v>2.0468000000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.9159000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -9458,16 +7571,16 @@
         <v>32</v>
       </c>
       <c r="E89">
-        <v>73.049400000000006</v>
+        <v>77.427599999999998</v>
       </c>
       <c r="F89">
-        <v>6.1605999999999996</v>
+        <v>4.0669000000000004</v>
       </c>
       <c r="G89">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.14449999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -9490,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -9513,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -9530,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.6899999999999998E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="G93">
-        <v>3.8342000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.9927999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -9550,16 +7663,16 @@
         <v>16</v>
       </c>
       <c r="E94">
-        <v>25.951599999999999</v>
+        <v>30.798500000000001</v>
       </c>
       <c r="F94">
-        <v>7.6063999999999998</v>
+        <v>12.555999999999999</v>
       </c>
       <c r="G94">
-        <v>0.2218</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.53520000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -9573,13 +7686,13 @@
         <v>32</v>
       </c>
       <c r="E95">
-        <v>47.156199999999998</v>
+        <v>53.308799999999998</v>
       </c>
       <c r="F95">
-        <v>0.59760000000000002</v>
+        <v>6.2999000000000001</v>
       </c>
       <c r="G95">
-        <v>5.7987000000000002</v>
+        <v>6.1158000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -9645,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>8.3999999999999995E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -9665,13 +7778,13 @@
         <v>16</v>
       </c>
       <c r="E100">
-        <v>-0.19089999999999999</v>
+        <v>-0.24479999999999999</v>
       </c>
       <c r="F100">
-        <v>7.1313000000000004</v>
+        <v>17.054500000000001</v>
       </c>
       <c r="G100">
-        <v>0.57199999999999995</v>
+        <v>23.0535</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -9688,13 +7801,13 @@
         <v>32</v>
       </c>
       <c r="E101">
-        <v>26.094899999999999</v>
+        <v>30.5932</v>
       </c>
       <c r="F101">
-        <v>10.6417</v>
+        <v>11.7035</v>
       </c>
       <c r="G101">
-        <v>3.4000000000000002E-2</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
